--- a/hardware/v1/v1_bom.xlsx
+++ b/hardware/v1/v1_bom.xlsx
@@ -433,6 +433,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -504,7 +505,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -514,10 +515,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -601,12 +598,12 @@
   <dimension ref="A1:F55"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F26" activeCellId="0" sqref="F26"/>
+      <selection pane="topLeft" activeCell="F34" activeCellId="0" sqref="F34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="64.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="48.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="8.38"/>
@@ -770,20 +767,20 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="n">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" s="3" t="s">
+      <c r="D10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" s="0" t="s">
         <v>31</v>
       </c>
     </row>
